--- a/biology/Botanique/Wangenheimia_lima/Wangenheimia_lima.xlsx
+++ b/biology/Botanique/Wangenheimia_lima/Wangenheimia_lima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wangenheimia lima est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire de l'ouest du bassin méditerranéen. C'est l'unique espèce du genre Wangenheimia (genre monotypique).
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Wangenheimia » est un hommage au botaniste prussien, Friedrich Adam Julius von Wangenheim (1749-1800)[3]. L'épithète spécifique « lima » est un hommage à Abelardo Rodriques Lima, qui collecta des plantes au Brésil[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Wangenheimia » est un hommage au botaniste prussien, Friedrich Adam Julius von Wangenheim (1749-1800). L'épithète spécifique « lima » est un hommage à Abelardo Rodriques Lima, qui collecta des plantes au Brésil.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (2 juin 2018)[5] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (2 juin 2018) :
 Catapodium  pauciflorum (Merino) Brullo, Giusso, Miniss. &amp; Spamp.
 Cynosurus lima L.
 Dactylis disticha Ball, nom.  superfl.
@@ -562,8 +581,43 @@
 Wangenheimia disticha Moench
 Wangenheimia lima var. glabra Maire 
 Wangenheimia lima var. villosula  Maire
-Liste des variétés
-Selon Tropicos                                           (2 juin 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wangenheimia_lima</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wangenheimia_lima</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (2 juin 2018) (Attention liste brute contenant possiblement des synonymes) :
 Wangenheimia lima var. lima
 Wangenheimia lima var. villosula Maire</t>
         </is>
